--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.008827419242777778</v>
+        <v>1.58953383686</v>
       </c>
       <c r="R2">
-        <v>0.079446773185</v>
+        <v>14.30580453174</v>
       </c>
       <c r="S2">
-        <v>6.026894465842841E-05</v>
+        <v>0.01103782503593119</v>
       </c>
       <c r="T2">
-        <v>6.026894465842838E-05</v>
+        <v>0.01103782503593119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>0.5692564240855555</v>
+        <v>117.807363001988</v>
       </c>
       <c r="R3">
-        <v>5.12330781677</v>
+        <v>1060.266267017892</v>
       </c>
       <c r="S3">
-        <v>0.003886581454453628</v>
+        <v>0.818061893749359</v>
       </c>
       <c r="T3">
-        <v>0.003886581454453626</v>
+        <v>0.8180618937493591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>0.1137807454044444</v>
+        <v>23.333782254712</v>
       </c>
       <c r="R4">
-        <v>1.02402670864</v>
+        <v>210.004040292408</v>
       </c>
       <c r="S4">
-        <v>0.0007768346851301603</v>
+        <v>0.1620312823681723</v>
       </c>
       <c r="T4">
-        <v>0.00077683468513016</v>
+        <v>0.1620312823681723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H5">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I5">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J5">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.0020708974</v>
+        <v>0.133678441404</v>
       </c>
       <c r="R5">
-        <v>0.0186380766</v>
+        <v>1.203105972636</v>
       </c>
       <c r="S5">
-        <v>1.413899095095072E-05</v>
+        <v>0.000928271681342817</v>
       </c>
       <c r="T5">
-        <v>1.413899095095072E-05</v>
+        <v>0.0009282716813428171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N6">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O6">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P6">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q6">
-        <v>1.826830474114</v>
+        <v>0.01272308506555556</v>
       </c>
       <c r="R6">
-        <v>16.441474267026</v>
+        <v>0.11450776559</v>
       </c>
       <c r="S6">
-        <v>0.01247263120926168</v>
+        <v>8.834991971500906E-05</v>
       </c>
       <c r="T6">
-        <v>0.01247263120926167</v>
+        <v>8.834991971500906E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H7">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>40.275994</v>
       </c>
       <c r="O7">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P7">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q7">
-        <v>117.807363001988</v>
+        <v>0.9429639470802222</v>
       </c>
       <c r="R7">
-        <v>1060.266267017892</v>
+        <v>8.486675523721999</v>
       </c>
       <c r="S7">
-        <v>0.8043262980775749</v>
+        <v>0.006548002201465111</v>
       </c>
       <c r="T7">
-        <v>0.8043262980775747</v>
+        <v>0.006548002201465113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H8">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N8">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q8">
-        <v>23.546874500416</v>
+        <v>0.1867702905364444</v>
       </c>
       <c r="R8">
-        <v>211.921870503744</v>
+        <v>1.680932614828</v>
       </c>
       <c r="S8">
-        <v>0.1607655915182249</v>
+        <v>0.001296944891040329</v>
       </c>
       <c r="T8">
-        <v>0.1607655915182249</v>
+        <v>0.001296944891040329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H9">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,276 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N9">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q9">
-        <v>0.42857129304</v>
+        <v>0.001070000614</v>
       </c>
       <c r="R9">
-        <v>3.85714163736</v>
+        <v>0.009630005526000001</v>
       </c>
       <c r="S9">
-        <v>0.002926057869467512</v>
+        <v>7.430152974284348E-06</v>
       </c>
       <c r="T9">
-        <v>0.002926057869467511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2081856666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.624557</v>
-      </c>
-      <c r="O10">
-        <v>0.0127208067884984</v>
-      </c>
-      <c r="P10">
-        <v>0.0127208067884984</v>
-      </c>
-      <c r="Q10">
-        <v>0.02752214513333334</v>
-      </c>
-      <c r="R10">
-        <v>0.2476993062</v>
-      </c>
-      <c r="S10">
-        <v>0.0001879066345783004</v>
-      </c>
-      <c r="T10">
-        <v>0.0001879066345783003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1322</v>
-      </c>
-      <c r="H11">
-        <v>0.3966</v>
-      </c>
-      <c r="I11">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J11">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.42533133333333</v>
-      </c>
-      <c r="N11">
-        <v>40.275994</v>
-      </c>
-      <c r="O11">
-        <v>0.8203304708596989</v>
-      </c>
-      <c r="P11">
-        <v>0.8203304708596987</v>
-      </c>
-      <c r="Q11">
-        <v>1.774828802266667</v>
-      </c>
-      <c r="R11">
-        <v>15.9734592204</v>
-      </c>
-      <c r="S11">
-        <v>0.01211759132767037</v>
-      </c>
-      <c r="T11">
-        <v>0.01211759132767036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1322</v>
-      </c>
-      <c r="H12">
-        <v>0.3966</v>
-      </c>
-      <c r="I12">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J12">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.683402666666666</v>
-      </c>
-      <c r="N12">
-        <v>8.050208</v>
-      </c>
-      <c r="O12">
-        <v>0.1639644429174985</v>
-      </c>
-      <c r="P12">
-        <v>0.1639644429174985</v>
-      </c>
-      <c r="Q12">
-        <v>0.3547458325333333</v>
-      </c>
-      <c r="R12">
-        <v>3.1927124928</v>
-      </c>
-      <c r="S12">
-        <v>0.002422016714143482</v>
-      </c>
-      <c r="T12">
-        <v>0.002422016714143481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1322</v>
-      </c>
-      <c r="H13">
-        <v>0.3966</v>
-      </c>
-      <c r="I13">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J13">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.04884</v>
-      </c>
-      <c r="N13">
-        <v>0.14652</v>
-      </c>
-      <c r="O13">
-        <v>0.002984279434304292</v>
-      </c>
-      <c r="P13">
-        <v>0.002984279434304292</v>
-      </c>
-      <c r="Q13">
-        <v>0.006456648000000001</v>
-      </c>
-      <c r="R13">
-        <v>0.05810983200000001</v>
-      </c>
-      <c r="S13">
-        <v>4.40825738858304E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.408257388583039E-05</v>
+        <v>7.430152974284349E-06</v>
       </c>
     </row>
   </sheetData>
